--- a/xlsx/公益_intext.xlsx
+++ b/xlsx/公益_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%88%E5%96%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>慈善組織</t>
+    <t>慈善组织</t>
   </si>
   <si>
     <t>政策_政策_政治_公益</t>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9C%BE%E5%88%A9%E7%9B%8A</t>
   </si>
   <si>
-    <t>公眾利益</t>
+    <t>公众利益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
 </sst>
 </file>
